--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail9 Features.xlsx
@@ -3215,7 +3215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3226,29 +3226,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3269,115 +3267,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3394,72 +3382,66 @@
         <v>2.33490458586271e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.333999965508043</v>
+        <v>7.37609709750567e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.305007432560465</v>
+        <v>6.937496183057006e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.37609709750567e-08</v>
+        <v>0.003428972959951143</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.937496183057006e-07</v>
+        <v>0.1446303810081032</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.003428972959951143</v>
+        <v>0.02092920976756419</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1446303810081032</v>
+        <v>1.675435038465858</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02092920976756419</v>
+        <v>1.653586297070468</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.620542939662811</v>
+        <v>3.602069088901673</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.653586297070468</v>
+        <v>3.155720333366561e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.602069088901673</v>
+        <v>160088329.1171919</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.155720333366561e-16</v>
+        <v>6.941009810700114e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>160088329.1171919</v>
+        <v>8.087566259238626</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.941009810700114e-07</v>
+        <v>0.0001904032623955169</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8.087566259238626</v>
+        <v>8.84120024502173</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001904032623955169</v>
+        <v>1.486890652400826</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.84120024502173</v>
+        <v>0.01488321787658669</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.486890652400826</v>
+        <v>2.723909870615066</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01488321787658669</v>
+        <v>0.9538619031514158</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.723909870615066</v>
+        <v>1.693564233396484</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9538619031514158</v>
+        <v>11</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.693564233396484</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1465101862624633</v>
       </c>
     </row>
@@ -3474,72 +3456,66 @@
         <v>2.352334440902923e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3528098733385408</v>
+        <v>7.542700785708117e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.269802987822453</v>
+        <v>6.938489658205584e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.542700785708117e-08</v>
+        <v>0.00504586219541915</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.938489658205584e-07</v>
+        <v>0.1437558475768657</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.00504586219541915</v>
+        <v>0.02069087283725491</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1437558475768657</v>
+        <v>1.675932187482528</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02069087283725491</v>
+        <v>1.638691519407409</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.62023033842847</v>
+        <v>3.588278312529529</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.638691519407409</v>
+        <v>3.18002361152682e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.588278312529529</v>
+        <v>159725866.2630477</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.18002361152682e-16</v>
+        <v>6.970440438543247e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>159725866.2630477</v>
+        <v>8.112988286966145</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.970440438543247e-07</v>
+        <v>0.000186114515879413</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.112988286966145</v>
+        <v>9.253816752311785</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000186114515879413</v>
+        <v>1.394581144842484</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.253816752311785</v>
+        <v>0.01593756750683544</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.394581144842484</v>
+        <v>2.735018728403692</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01593756750683544</v>
+        <v>0.9558786592318725</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.735018728403692</v>
+        <v>1.690549944560245</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9558786592318725</v>
+        <v>11</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.690549944560245</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1502140567080567</v>
       </c>
     </row>
@@ -3554,72 +3530,66 @@
         <v>2.376571674981918e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3777718902988376</v>
+        <v>7.680210474145692e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.224218329168044</v>
+        <v>6.939879226685917e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.680210474145692e-08</v>
+        <v>0.006747073336529207</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.939879226685917e-07</v>
+        <v>0.1422813016330173</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.006747073336529207</v>
+        <v>0.02028906924862339</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1422813016330173</v>
+        <v>1.681433861818272</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02028906924862339</v>
+        <v>1.624957753438089</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.625065307858934</v>
+        <v>3.605281008475147</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.624957753438089</v>
+        <v>3.150100019791367e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.605281008475147</v>
+        <v>166720573.5012316</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.150100019791367e-16</v>
+        <v>6.724042500231502e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>166720573.5012316</v>
+        <v>8.755939145510439</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.724042500231502e-07</v>
+        <v>0.0001772338287204039</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.755939145510439</v>
+        <v>10.90471962759891</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001772338287204039</v>
+        <v>1.110584118818324</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.90471962759891</v>
+        <v>0.02107539035132916</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.110584118818324</v>
+        <v>2.571153302650881</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02107539035132916</v>
+        <v>0.9573993506763382</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.571153302650881</v>
+        <v>1.697207919899884</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9573993506763382</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.697207919899884</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1624426253369083</v>
       </c>
     </row>
@@ -3634,72 +3604,66 @@
         <v>2.408297882287337e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.407920525020122</v>
+        <v>7.836067876023446e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.17189531484192</v>
+        <v>6.941722612814018e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.836067876023446e-08</v>
+        <v>0.008680366934220595</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.941722612814018e-07</v>
+        <v>0.1403550046398031</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.008680366934220595</v>
+        <v>0.01977437697306591</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1403550046398031</v>
+        <v>1.676059840367667</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01977437697306591</v>
+        <v>1.592867340485203</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.619540780280238</v>
+        <v>3.642268188683631</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.592867340485203</v>
+        <v>3.086446430552112e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.642268188683631</v>
+        <v>169700345.4957306</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.086446430552112e-16</v>
+        <v>6.5839174384218e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>169700345.4957306</v>
+        <v>8.888412400815641</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.5839174384218e-07</v>
+        <v>0.0001790506056869765</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.888412400815641</v>
+        <v>11.27023336444545</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001790506056869765</v>
+        <v>1.086667699566215</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.27023336444545</v>
+        <v>0.02274267849719144</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.086667699566215</v>
+        <v>2.46059903759756</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02274267849719144</v>
+        <v>0.9584736081864801</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.46059903759756</v>
+        <v>1.704089351981477</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9584736081864801</v>
+        <v>25</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.704089351981477</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1658997426440108</v>
       </c>
     </row>
@@ -3714,72 +3678,66 @@
         <v>2.447687075364547e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4412870694397384</v>
+        <v>7.957678217759856e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.118576580459556</v>
+        <v>6.944058675040281e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.957678217759856e-08</v>
+        <v>0.01051337577593747</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.944058675040281e-07</v>
+        <v>0.1378253828361077</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01051337577593747</v>
+        <v>0.01910589188869581</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1378253828361077</v>
+        <v>1.6742951530047</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01910589188869581</v>
+        <v>1.568335812061897</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.618509342608664</v>
+        <v>3.713726414024361</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.568335812061897</v>
+        <v>2.968812513513499e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.713726414024361</v>
+        <v>176537725.9896522</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.968812513513499e-16</v>
+        <v>6.329606876085308e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>176537725.9896522</v>
+        <v>9.252473034019209</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.329606876085308e-07</v>
+        <v>0.0001738909694060004</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>9.252473034019209</v>
+        <v>10.08942773185333</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001738909694060004</v>
+        <v>1.168201895843146</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.08942773185333</v>
+        <v>0.01770150110186773</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.168201895843146</v>
+        <v>2.656683677154138</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01770150110186773</v>
+        <v>0.9581147805489689</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.656683677154138</v>
+        <v>1.701890987443929</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9581147805489689</v>
+        <v>25</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.701890987443929</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1626510725433668</v>
       </c>
     </row>
@@ -3794,72 +3752,66 @@
         <v>2.492999642935251e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4728840250449199</v>
+        <v>7.995997459875716e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.07695220620772</v>
+        <v>6.946851121521772e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.995997459875716e-08</v>
+        <v>0.01202542362256433</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.946851121521772e-07</v>
+        <v>0.1347304644469111</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01202542362256433</v>
+        <v>0.01829637770871543</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1347304644469111</v>
+        <v>1.682876300840815</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01829637770871543</v>
+        <v>1.536966466230119</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.625993987983135</v>
+        <v>3.927379248569815</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.536966466230119</v>
+        <v>2.654586631479629e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.927379248569815</v>
+        <v>198060473.9884369</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.654586631479629e-16</v>
+        <v>5.658597749762606e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>198060473.9884369</v>
+        <v>10.41339952513626</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.658597749762606e-07</v>
+        <v>0.0001750684205800521</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10.41339952513626</v>
+        <v>8.738851487187702</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001750684205800521</v>
+        <v>1.398050024402056</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.738851487187702</v>
+        <v>0.01336954204052568</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.398050024402056</v>
+        <v>2.796816094182818</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01336954204052568</v>
+        <v>0.9593823846559988</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.796816094182818</v>
+        <v>1.698921636387978</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9593823846559988</v>
+        <v>25</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.698921636387978</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1650354789085658</v>
       </c>
     </row>
@@ -4236,7 +4188,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.605733649395643</v>
+        <v>1.584261774906383</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.871363832924523</v>
@@ -4325,7 +4277,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.615895246727577</v>
+        <v>1.588029821189991</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.914361179435905</v>
@@ -4414,7 +4366,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.616738861966708</v>
+        <v>1.587758275260209</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.948739097875924</v>
@@ -4503,7 +4455,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.613800295533221</v>
+        <v>1.588388736479249</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.582737551354926</v>
@@ -4592,7 +4544,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.596416857887547</v>
+        <v>1.576892824471146</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.980144279793247</v>
@@ -4681,7 +4633,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.599271635188337</v>
+        <v>1.57834420043342</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.791172076490157</v>
@@ -4770,7 +4722,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.600268380586644</v>
+        <v>1.585036080985676</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.741640207031858</v>
@@ -4859,7 +4811,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600573145363498</v>
+        <v>1.582894783025568</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.88415800517086</v>
@@ -4948,7 +4900,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.602514787746642</v>
+        <v>1.581322056906155</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.794731451649486</v>
@@ -5037,7 +4989,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.597302354744197</v>
+        <v>1.574814376020612</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.15191185357045</v>
@@ -5126,7 +5078,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.596925247918662</v>
+        <v>1.574375478147237</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.131969011572141</v>
@@ -5215,7 +5167,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.605512865880099</v>
+        <v>1.576377143696351</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.555143584181649</v>
@@ -5304,7 +5256,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.563312865105387</v>
+        <v>1.543596326463194</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.388230581795009</v>
@@ -5393,7 +5345,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562922391683112</v>
+        <v>1.541415967855796</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.407135440914011</v>
@@ -5482,7 +5434,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.562306200988097</v>
+        <v>1.534609979931071</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.432408201391617</v>
@@ -5571,7 +5523,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.567341918519761</v>
+        <v>1.531212202886748</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.367185395494212</v>
@@ -5660,7 +5612,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.570369657045276</v>
+        <v>1.532227058161566</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.314026163445967</v>
@@ -5749,7 +5701,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.582917192580369</v>
+        <v>1.545853354846937</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.410837314110944</v>
@@ -5838,7 +5790,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584024175649565</v>
+        <v>1.542101957047512</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.292382967820888</v>
@@ -5927,7 +5879,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.577107891316084</v>
+        <v>1.533442667816025</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.438479755864637</v>
@@ -6016,7 +5968,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.549296507905233</v>
+        <v>1.51327101366331</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.469802675500587</v>
@@ -6105,7 +6057,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.548254283208135</v>
+        <v>1.505843874783863</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.376111707658477</v>
@@ -6194,7 +6146,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.535701471005997</v>
+        <v>1.492771605388699</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.399982329905426</v>
@@ -6283,7 +6235,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.533394424065282</v>
+        <v>1.488244151036054</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.413319922120166</v>
@@ -6372,7 +6324,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.555747870612743</v>
+        <v>1.508451741562111</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.338343309184109</v>
@@ -6461,7 +6413,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.55489859038384</v>
+        <v>1.506962075576287</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.461290900798565</v>
@@ -6550,7 +6502,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.55803798809445</v>
+        <v>1.507527534055138</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.388592267303755</v>
@@ -6639,7 +6591,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.587698501323834</v>
+        <v>1.542023388183026</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.573439266846083</v>
@@ -6728,7 +6680,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.560242491344894</v>
+        <v>1.520842811762214</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.734799894983946</v>
@@ -6817,7 +6769,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.557497966158407</v>
+        <v>1.522766697053269</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.782121926470619</v>
@@ -6906,7 +6858,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.551385206790201</v>
+        <v>1.527150627189588</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.873293665788248</v>
@@ -6995,7 +6947,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.546851320653224</v>
+        <v>1.522387136911148</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.83578190699666</v>
@@ -7084,7 +7036,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.544408356737544</v>
+        <v>1.5188830129324</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.93642074999775</v>
@@ -7173,7 +7125,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.538416812146657</v>
+        <v>1.513495258619826</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.823694988983404</v>
@@ -7262,7 +7214,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.550452726579815</v>
+        <v>1.521360365876924</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.542934456442309</v>
@@ -7351,7 +7303,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.543843457062346</v>
+        <v>1.515913571190667</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.362458689832633</v>
@@ -7440,7 +7392,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.409502099170073</v>
+        <v>1.385930087618522</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.504011657582053</v>
@@ -7529,7 +7481,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.402833836614177</v>
+        <v>1.383866371032434</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.505624037979413</v>
@@ -7618,7 +7570,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.385998517671897</v>
+        <v>1.370148029397818</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.509438773027924</v>
@@ -7707,7 +7659,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.376806281989827</v>
+        <v>1.360695773632885</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.512434598249525</v>
@@ -7796,7 +7748,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.377734231015769</v>
+        <v>1.361841316398757</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.510785066352777</v>
@@ -7885,7 +7837,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.375262452365351</v>
+        <v>1.359088175127301</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.509965759007705</v>
@@ -7974,7 +7926,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.377632530662788</v>
+        <v>1.35988833239806</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.503891209116458</v>
@@ -8063,7 +8015,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.38394916490751</v>
+        <v>1.360612034505025</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.49768293011483</v>
@@ -8152,7 +8104,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.38062688232322</v>
+        <v>1.357850816481718</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.480281159965457</v>
@@ -8241,7 +8193,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.375225878710179</v>
+        <v>1.349953301584825</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.479825709548131</v>
@@ -8330,7 +8282,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.367095551692268</v>
+        <v>1.341988480849864</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.49865644145044</v>
@@ -8419,7 +8371,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.370030691800217</v>
+        <v>1.34623354144987</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.518280708791635</v>
@@ -8508,7 +8460,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.374999566666347</v>
+        <v>1.35498578767446</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.515540602488603</v>
@@ -8597,7 +8549,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.380795470418303</v>
+        <v>1.36126540003352</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.5172397384545</v>
@@ -8686,7 +8638,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.410424933702686</v>
+        <v>1.379275391922553</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.534119043563537</v>
@@ -8972,7 +8924,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.642240136621332</v>
+        <v>1.666195757995856</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.497528028216233</v>
@@ -9061,7 +9013,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64841226741502</v>
+        <v>1.668696158097959</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.427566576878861</v>
@@ -9150,7 +9102,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.643012281367407</v>
+        <v>1.665202659920402</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.49933521468647</v>
@@ -9239,7 +9191,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.634228691453084</v>
+        <v>1.656435255121186</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.399033412666473</v>
@@ -9328,7 +9280,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.632366558967204</v>
+        <v>1.654385361736404</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.385371846808697</v>
@@ -9417,7 +9369,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.651901326014614</v>
+        <v>1.672314048475163</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.409191961937667</v>
@@ -9506,7 +9458,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.6689154008281</v>
+        <v>1.68971623266943</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.483322532295532</v>
@@ -9595,7 +9547,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.677497629887001</v>
+        <v>1.697471393073367</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.536352735020721</v>
@@ -9684,7 +9636,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.698243740497682</v>
+        <v>1.708906418533594</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.413392700394257</v>
@@ -9773,7 +9725,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.720494645194844</v>
+        <v>1.734071024682225</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.966952140170003</v>
@@ -9862,7 +9814,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.714348170412515</v>
+        <v>1.731927165487168</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.143235650117602</v>
@@ -9951,7 +9903,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.698430005251153</v>
+        <v>1.719320679726392</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.366884214247937</v>
@@ -10040,7 +9992,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605562560665825</v>
+        <v>1.637505464017546</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.237785316386525</v>
@@ -10129,7 +10081,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.609184514690316</v>
+        <v>1.644344083645389</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.214438370600149</v>
@@ -10218,7 +10170,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.608406936397472</v>
+        <v>1.644309248519846</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.228828706258101</v>
@@ -10307,7 +10259,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.619372379352893</v>
+        <v>1.651174486848467</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.212258870081945</v>
@@ -10396,7 +10348,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.620944102796422</v>
+        <v>1.651259424763093</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.192096822018118</v>
@@ -10485,7 +10437,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.630941368580519</v>
+        <v>1.659032117222802</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.215458361427401</v>
@@ -10574,7 +10526,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.634762528680299</v>
+        <v>1.662231655032317</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.201982344275824</v>
@@ -10663,7 +10615,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.609091643917152</v>
+        <v>1.635371833249307</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.222935694642323</v>
@@ -10752,7 +10704,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.576791446410096</v>
+        <v>1.603787757655368</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.235229181883057</v>
@@ -10841,7 +10793,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.569250546087951</v>
+        <v>1.595743568396549</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.230446810741938</v>
@@ -10930,7 +10882,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.55820761953455</v>
+        <v>1.586498456989599</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.247842227574221</v>
@@ -11019,7 +10971,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.541034865513164</v>
+        <v>1.566083440131225</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.215877669773098</v>
@@ -11108,7 +11060,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.568385348079172</v>
+        <v>1.589841751424049</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.167454900725186</v>
@@ -11197,7 +11149,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.576334322210371</v>
+        <v>1.592899213488524</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.216732564284247</v>
@@ -11286,7 +11238,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.598747117989149</v>
+        <v>1.61034303301878</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.116373985302393</v>
@@ -11375,7 +11327,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.668589744713713</v>
+        <v>1.672045374898201</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.864728868456674</v>
@@ -11464,7 +11416,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.660575562703453</v>
+        <v>1.667586946519436</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.114396852772797</v>
@@ -11553,7 +11505,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.665924876935852</v>
+        <v>1.674405133652466</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.126944181186754</v>
@@ -11642,7 +11594,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.658259490282808</v>
+        <v>1.67594798958968</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.316668820900886</v>
@@ -11731,7 +11683,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.666945533165611</v>
+        <v>1.685593879341491</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.080705921001436</v>
@@ -11820,7 +11772,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.668631035147574</v>
+        <v>1.685422003963416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.398127629425056</v>
@@ -11909,7 +11861,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.667111000496925</v>
+        <v>1.6822400150611</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.14039501040853</v>
@@ -11998,7 +11950,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.713588952601894</v>
+        <v>1.720749273679886</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.725625650705088</v>
@@ -12087,7 +12039,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.722013225025321</v>
+        <v>1.730689642413921</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.471007028020245</v>
@@ -12176,7 +12128,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.617587114221958</v>
+        <v>1.618161924984434</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.751451928215052</v>
@@ -12265,7 +12217,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608652999172386</v>
+        <v>1.606674174678983</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.749672753372024</v>
@@ -12354,7 +12306,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.581796140617161</v>
+        <v>1.587249630528313</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.751439562612002</v>
@@ -12443,7 +12395,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.575560758574055</v>
+        <v>1.581987634951706</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.739490541519018</v>
@@ -12532,7 +12484,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.57417511917514</v>
+        <v>1.581531223377428</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.740670791245241</v>
@@ -12621,7 +12573,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.562141248884983</v>
+        <v>1.569242022307748</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.71994794630322</v>
@@ -12710,7 +12662,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.556680057938731</v>
+        <v>1.560115646321071</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.702799815650097</v>
@@ -12799,7 +12751,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.545366396403317</v>
+        <v>1.54248094486099</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.673613576727355</v>
@@ -12888,7 +12840,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.527874626091443</v>
+        <v>1.521029244173297</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.647800926851218</v>
@@ -12977,7 +12929,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.504523540207856</v>
+        <v>1.492300385565164</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.634200947047143</v>
@@ -13066,7 +13018,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.481124311238037</v>
+        <v>1.464889084805693</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.643584469906915</v>
@@ -13155,7 +13107,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.477779402245709</v>
+        <v>1.464445216972114</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.677174943944132</v>
@@ -13244,7 +13196,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.480459187073609</v>
+        <v>1.468644632125203</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.674433768326123</v>
@@ -13333,7 +13285,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.475975956685963</v>
+        <v>1.466144650877401</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.661623665061519</v>
@@ -13422,7 +13374,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.490881672377813</v>
+        <v>1.475050500050099</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.66001770313375</v>
@@ -13708,7 +13660,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.726416386881726</v>
+        <v>1.716658606990956</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.504684919296218</v>
@@ -13797,7 +13749,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.731332803174104</v>
+        <v>1.717803235803891</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.18636068588788</v>
@@ -13886,7 +13838,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.729307570007707</v>
+        <v>1.709610968063178</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.127370711155744</v>
@@ -13975,7 +13927,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.722106571370193</v>
+        <v>1.699615919431638</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.088210158471627</v>
@@ -14064,7 +14016,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.742275266446672</v>
+        <v>1.720463768323455</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.958601069941221</v>
@@ -14153,7 +14105,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.770267125875283</v>
+        <v>1.75040538351437</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.191401695996354</v>
@@ -14242,7 +14194,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.779251133775296</v>
+        <v>1.761692903807093</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.415848565708805</v>
@@ -14331,7 +14283,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.779783608375504</v>
+        <v>1.760979705389901</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.359905888877405</v>
@@ -14420,7 +14372,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.791858534798351</v>
+        <v>1.769392202410298</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.280664622000392</v>
@@ -14509,7 +14461,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.799511199201462</v>
+        <v>1.777179172609358</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.314449630562249</v>
@@ -14598,7 +14550,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.798311043742502</v>
+        <v>1.781304898580711</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.096483909950317</v>
@@ -14687,7 +14639,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.76193334461904</v>
+        <v>1.758799789203018</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.373630073172752</v>
@@ -14776,7 +14728,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.727611287014059</v>
+        <v>1.725998303622132</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.405976205227089</v>
@@ -14865,7 +14817,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.724986347555233</v>
+        <v>1.723548271782143</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.439833980951766</v>
@@ -14954,7 +14906,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.720325670871977</v>
+        <v>1.715221150650247</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.317431985396217</v>
@@ -15043,7 +14995,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.743577793747419</v>
+        <v>1.733818325924581</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.376174076187241</v>
@@ -15132,7 +15084,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.738783008655562</v>
+        <v>1.727262761701867</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.480519243443147</v>
@@ -15221,7 +15173,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.744114643216682</v>
+        <v>1.738264938713737</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.368633595060728</v>
@@ -15310,7 +15262,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.74491983212601</v>
+        <v>1.740043339150091</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.483898037167588</v>
@@ -15399,7 +15351,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737246587358145</v>
+        <v>1.727430632688096</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.431979051107664</v>
@@ -15488,7 +15440,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.712924540091001</v>
+        <v>1.709547908700292</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.374327477771181</v>
@@ -15577,7 +15529,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.71146894440022</v>
+        <v>1.707666460642491</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.332027562942761</v>
@@ -15666,7 +15618,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.708301753903205</v>
+        <v>1.702009835925211</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.384666457546752</v>
@@ -15755,7 +15707,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.682343593377023</v>
+        <v>1.678394373975476</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.328640576069392</v>
@@ -15844,7 +15796,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.681100648428409</v>
+        <v>1.675665194340835</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.348477911076406</v>
@@ -15933,7 +15885,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.695752419056586</v>
+        <v>1.687338728552467</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.430348905618433</v>
@@ -16022,7 +15974,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.717055132746128</v>
+        <v>1.694204369980663</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.469553461339453</v>
@@ -16111,7 +16063,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.719138806183043</v>
+        <v>1.701409793994951</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.32716639106899</v>
@@ -16200,7 +16152,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.703795642703595</v>
+        <v>1.686075897775337</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.46957667240051</v>
@@ -16289,7 +16241,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.711283280382278</v>
+        <v>1.697529717955799</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.358601502362611</v>
@@ -16378,7 +16330,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.713766737091583</v>
+        <v>1.707283324026139</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.393354872287438</v>
@@ -16467,7 +16419,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.722957129164278</v>
+        <v>1.720300114194924</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.337590275738699</v>
@@ -16556,7 +16508,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719309514645466</v>
+        <v>1.710936767001218</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.424989174263046</v>
@@ -16645,7 +16597,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.725020006875624</v>
+        <v>1.712618356468867</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.299378923977334</v>
@@ -16734,7 +16686,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.730185386515024</v>
+        <v>1.715854507817495</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.266369366078031</v>
@@ -16823,7 +16775,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.710608599571948</v>
+        <v>1.69917883535041</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.409780799276267</v>
@@ -16912,7 +16864,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.653537770010905</v>
+        <v>1.623243152560078</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.837757450024377</v>
@@ -17001,7 +16953,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.646400419474037</v>
+        <v>1.622363035297923</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.822346877418367</v>
@@ -17090,7 +17042,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.646618684275499</v>
+        <v>1.616544031196651</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.808475977717708</v>
@@ -17179,7 +17131,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.651644897346274</v>
+        <v>1.621173995821473</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.812924192797799</v>
@@ -17268,7 +17220,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.648009702403072</v>
+        <v>1.61420502287839</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.811666983414131</v>
@@ -17357,7 +17309,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.649335823247405</v>
+        <v>1.613398115753471</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.819287797106492</v>
@@ -17446,7 +17398,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.650867894105295</v>
+        <v>1.613085531286546</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.773417111031667</v>
@@ -17535,7 +17487,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.646034612113295</v>
+        <v>1.606293000576309</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.795832152082242</v>
@@ -17624,7 +17576,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629959041018888</v>
+        <v>1.587986457502291</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.723644702957191</v>
@@ -17713,7 +17665,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.605907302287543</v>
+        <v>1.555905821079482</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.72442533234352</v>
@@ -17802,7 +17754,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.601206767580163</v>
+        <v>1.551397646578669</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.728971682236361</v>
@@ -17891,7 +17843,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.627273543895299</v>
+        <v>1.586523785836357</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.79496485592801</v>
@@ -17980,7 +17932,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.627551644294303</v>
+        <v>1.592689168991166</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.783763284287565</v>
@@ -18069,7 +18021,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.62792849805407</v>
+        <v>1.59488301083368</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.808647217097194</v>
@@ -18158,7 +18110,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.649881306443315</v>
+        <v>1.611662999917038</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.801366162810931</v>
@@ -18444,7 +18396,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.671646327858994</v>
+        <v>1.629369018626143</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.40562348314987</v>
@@ -18533,7 +18485,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.668966349320982</v>
+        <v>1.626574404301369</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.088031456749619</v>
@@ -18622,7 +18574,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.658460370247498</v>
+        <v>1.615055616770662</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.247051988871916</v>
@@ -18711,7 +18663,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.655920296004495</v>
+        <v>1.603432479731119</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.08824608799978</v>
@@ -18800,7 +18752,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.654185330564556</v>
+        <v>1.604663442237632</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.824960970207805</v>
@@ -18889,7 +18841,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.649923028084967</v>
+        <v>1.614753535386381</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.971043412080435</v>
@@ -18978,7 +18930,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.64111383768426</v>
+        <v>1.610557985489758</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.971511475532373</v>
@@ -19067,7 +19019,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.633043545817137</v>
+        <v>1.599980313128167</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.851520886469008</v>
@@ -19156,7 +19108,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.6433323795987</v>
+        <v>1.602953272347252</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.104087142668658</v>
@@ -19245,7 +19197,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.658940229570653</v>
+        <v>1.614424639226136</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.816902070296978</v>
@@ -19334,7 +19286,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.660571277482577</v>
+        <v>1.620386317358858</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.651631353908783</v>
@@ -19423,7 +19375,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.666014993830413</v>
+        <v>1.630524926938243</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.5324136587267</v>
@@ -19512,7 +19464,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.628370379286286</v>
+        <v>1.594376560043121</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.641160098732137</v>
@@ -19601,7 +19553,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.620649843004684</v>
+        <v>1.583759115053041</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.611308579305742</v>
@@ -19690,7 +19642,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.616056539462253</v>
+        <v>1.580142994016562</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.593295428907179</v>
@@ -19779,7 +19731,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625778286652186</v>
+        <v>1.583559904168801</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.57299898865918</v>
@@ -19868,7 +19820,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.623719748464222</v>
+        <v>1.581369258429856</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.667317801650501</v>
@@ -19957,7 +19909,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.6253967956191</v>
+        <v>1.581987857211522</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.64578049170138</v>
@@ -20046,7 +19998,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.632149938589483</v>
+        <v>1.595312762063381</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.616638299780095</v>
@@ -20135,7 +20087,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.62337425858126</v>
+        <v>1.587786828196818</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.678572909724931</v>
@@ -20224,7 +20176,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.618930090017389</v>
+        <v>1.584775357833727</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.572794265789534</v>
@@ -20313,7 +20265,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.616412954594675</v>
+        <v>1.582624638657065</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.55330385559057</v>
@@ -20402,7 +20354,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610701114673094</v>
+        <v>1.57732951536358</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.579799860603443</v>
@@ -20491,7 +20443,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.608529052308375</v>
+        <v>1.579535389360936</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.572919630327601</v>
@@ -20580,7 +20532,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.614169101396476</v>
+        <v>1.580942551725302</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.663100745654756</v>
@@ -20669,7 +20621,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.619096806993557</v>
+        <v>1.585135977471941</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.646225052478306</v>
@@ -20758,7 +20710,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.610755124825654</v>
+        <v>1.565606745042228</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.473353453457738</v>
@@ -20847,7 +20799,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.635386087538468</v>
+        <v>1.592097896375227</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.176546202035673</v>
@@ -20936,7 +20888,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.637566735185973</v>
+        <v>1.590759426997886</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.201637601537326</v>
@@ -21025,7 +20977,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.646236206899443</v>
+        <v>1.599140953290992</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.114567255616535</v>
@@ -21114,7 +21066,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.649101784772233</v>
+        <v>1.609037258331435</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.084266406572453</v>
@@ -21203,7 +21155,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.65823308325855</v>
+        <v>1.618626407656132</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.147535476061517</v>
@@ -21292,7 +21244,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.660743870821855</v>
+        <v>1.623094492532377</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.335688806530284</v>
@@ -21381,7 +21333,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.662514369274597</v>
+        <v>1.62535454813702</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.271948899550766</v>
@@ -21470,7 +21422,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.675004017625001</v>
+        <v>1.630502259514478</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.194935938339183</v>
@@ -21559,7 +21511,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.679175943663513</v>
+        <v>1.629883722691671</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.7844806116047</v>
@@ -21648,7 +21600,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.668086656880424</v>
+        <v>1.598008707574386</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.826399994881825</v>
@@ -21737,7 +21689,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.679473782010026</v>
+        <v>1.613876235238192</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.862991435740594</v>
@@ -21826,7 +21778,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.681161343864374</v>
+        <v>1.614465433747193</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.851169905602594</v>
@@ -21915,7 +21867,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.688090819396393</v>
+        <v>1.626197658203143</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.881445966471764</v>
@@ -22004,7 +21956,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.687891042390725</v>
+        <v>1.626952731692642</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.891829185075296</v>
@@ -22093,7 +22045,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.691645204846752</v>
+        <v>1.630890504296502</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.900585861788929</v>
@@ -22182,7 +22134,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.695988061263811</v>
+        <v>1.631108282750301</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.861190784205136</v>
@@ -22271,7 +22223,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.688415966411293</v>
+        <v>1.626626184482324</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.872636749177447</v>
@@ -22360,7 +22312,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679793432914607</v>
+        <v>1.618125264852111</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.827388230368668</v>
@@ -22449,7 +22401,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.669543131175202</v>
+        <v>1.60374908327675</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.850983026360783</v>
@@ -22538,7 +22490,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.66892682062624</v>
+        <v>1.606577149893945</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.89114412514678</v>
@@ -22627,7 +22579,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.673895645308339</v>
+        <v>1.606109786512117</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.906513991537624</v>
@@ -22716,7 +22668,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.678256161511337</v>
+        <v>1.608049784913325</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.927734375129408</v>
@@ -22805,7 +22757,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.677973085038125</v>
+        <v>1.610768577273015</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.889841516704029</v>
@@ -22894,7 +22846,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.676463153941675</v>
+        <v>1.611696672542218</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.852311242357762</v>
@@ -23180,7 +23132,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.505241097075959</v>
+        <v>1.488463550390453</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.365337662969019</v>
@@ -23269,7 +23221,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.538026738570897</v>
+        <v>1.513509166437091</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.362518291753964</v>
@@ -23358,7 +23310,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.536673430148042</v>
+        <v>1.513576854304896</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.365653611397335</v>
@@ -23447,7 +23399,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.564425057223506</v>
+        <v>1.531907940397389</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.133673792525153</v>
@@ -23536,7 +23488,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.585675087475886</v>
+        <v>1.556899301344439</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.334115137119007</v>
@@ -23625,7 +23577,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.579559028861236</v>
+        <v>1.548668806118749</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.307627035955991</v>
@@ -23714,7 +23666,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.594179214860618</v>
+        <v>1.563165825899396</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.07083646661839</v>
@@ -23803,7 +23755,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.639371297018666</v>
+        <v>1.60644910730386</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.220718904267367</v>
@@ -23892,7 +23844,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.644895738929691</v>
+        <v>1.619042290508819</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.349382956622579</v>
@@ -23981,7 +23933,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.642991457927559</v>
+        <v>1.622792831156752</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.260571586119946</v>
@@ -24070,7 +24022,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.638096019684875</v>
+        <v>1.619007000391434</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.21720973252053</v>
@@ -24159,7 +24111,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.647120260880893</v>
+        <v>1.629154587170362</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.431633024577633</v>
@@ -24248,7 +24200,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.623349734496716</v>
+        <v>1.600375064387167</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.334301750818834</v>
@@ -24337,7 +24289,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.596573867172751</v>
+        <v>1.578413856002996</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.413321761660983</v>
@@ -24426,7 +24378,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.592798950129599</v>
+        <v>1.5679610944808</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.340928448750586</v>
@@ -24515,7 +24467,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.586508415282984</v>
+        <v>1.556320226404607</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.402022970590382</v>
@@ -24604,7 +24556,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57941054701934</v>
+        <v>1.553397331658667</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.411808797900739</v>
@@ -24693,7 +24645,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.58603113807621</v>
+        <v>1.551819903812607</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.341017464761331</v>
@@ -24782,7 +24734,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.597304683525094</v>
+        <v>1.556252578380358</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.314449425839384</v>
@@ -24871,7 +24823,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.588562003079549</v>
+        <v>1.550279061847319</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.420754875342846</v>
@@ -24960,7 +24912,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.577154659966974</v>
+        <v>1.541234620258559</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.372565394023267</v>
@@ -25049,7 +25001,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.558043762918319</v>
+        <v>1.521260539908279</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.378533475482829</v>
@@ -25138,7 +25090,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548142356274455</v>
+        <v>1.510708624651507</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.415361582029759</v>
@@ -25227,7 +25179,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.535826035619584</v>
+        <v>1.49632313879714</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.431952304025879</v>
@@ -25316,7 +25268,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.529509726958102</v>
+        <v>1.488937617396593</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.382230955863487</v>
@@ -25405,7 +25357,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.533751157511898</v>
+        <v>1.491865095921301</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.351291693559018</v>
@@ -25494,7 +25446,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.52342052024743</v>
+        <v>1.482856319324164</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.262211901722103</v>
@@ -25583,7 +25535,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.530914177444168</v>
+        <v>1.499057381421796</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.953655171146362</v>
@@ -25672,7 +25624,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.50908526998399</v>
+        <v>1.482349669794298</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.50933412234816</v>
@@ -25761,7 +25713,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.499300614599566</v>
+        <v>1.47615964193058</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.50275569847271</v>
@@ -25850,7 +25802,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.496676232713874</v>
+        <v>1.47596713193242</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.594443272932765</v>
@@ -25939,7 +25891,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.492978755129512</v>
+        <v>1.474952502202011</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.556800202871906</v>
@@ -26028,7 +25980,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.493946776053944</v>
+        <v>1.475897924944005</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.558182711477007</v>
@@ -26117,7 +26069,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.49849200185984</v>
+        <v>1.479115468310833</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.676143922217531</v>
@@ -26206,7 +26158,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.509478725567613</v>
+        <v>1.482833747379158</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.430979272752219</v>
@@ -26295,7 +26247,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.48490218317217</v>
+        <v>1.469740543283346</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.089448947346388</v>
@@ -26384,7 +26336,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.426318490756705</v>
+        <v>1.389832009961757</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.373687765307962</v>
@@ -26473,7 +26425,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.420457916790405</v>
+        <v>1.385160375968097</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.376611626143072</v>
@@ -26562,7 +26514,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.411738100405793</v>
+        <v>1.378982089368465</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.381118195114785</v>
@@ -26651,7 +26603,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.417064114100642</v>
+        <v>1.384087240276803</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.383442656693589</v>
@@ -26740,7 +26692,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.417267018877347</v>
+        <v>1.386353433819842</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.383671750507101</v>
@@ -26829,7 +26781,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.421305999518466</v>
+        <v>1.389592358292182</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.388331690119072</v>
@@ -26918,7 +26870,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.428607174037184</v>
+        <v>1.396553822056879</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.385561511511154</v>
@@ -27007,7 +26959,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.451989294325905</v>
+        <v>1.413695884313368</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.388036844115307</v>
@@ -27096,7 +27048,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.457932353212657</v>
+        <v>1.421486234330676</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.374119445818015</v>
@@ -27185,7 +27137,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.461852651835469</v>
+        <v>1.425327834664337</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.377222895830095</v>
@@ -27274,7 +27226,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.461314459079324</v>
+        <v>1.428445146176428</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.385237015551577</v>
@@ -27363,7 +27315,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.446494527168671</v>
+        <v>1.415689502442215</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.390326731162344</v>
@@ -27452,7 +27404,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.443721349452413</v>
+        <v>1.417855818784874</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.387055328078752</v>
@@ -27541,7 +27493,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.445937232183292</v>
+        <v>1.422932264704872</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.394662024267222</v>
@@ -27630,7 +27582,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.477525516496044</v>
+        <v>1.439541485328726</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.373873069568847</v>
@@ -27916,7 +27868,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.549023719487908</v>
+        <v>1.57400187183997</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.374523171016723</v>
@@ -28005,7 +27957,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.551373419696229</v>
+        <v>1.574748870025247</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.372888749603519</v>
@@ -28094,7 +28046,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.53509519574229</v>
+        <v>1.561161494886725</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.347545870765312</v>
@@ -28183,7 +28135,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.526398346943471</v>
+        <v>1.551972994265845</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.359330229124104</v>
@@ -28272,7 +28224,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.533875074028795</v>
+        <v>1.556581154674902</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.219416170346671</v>
@@ -28361,7 +28313,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.540059666959925</v>
+        <v>1.563107894289142</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.255896647217489</v>
@@ -28450,7 +28402,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.548301545226293</v>
+        <v>1.575495570377965</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.269983632895913</v>
@@ -28539,7 +28491,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.535877123583873</v>
+        <v>1.558091274353274</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.191245276728281</v>
@@ -28628,7 +28580,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.563281247299704</v>
+        <v>1.574406979911862</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.193513834121359</v>
@@ -28717,7 +28669,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.633148798137989</v>
+        <v>1.64355598412205</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.097608876172949</v>
@@ -28806,7 +28758,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.619770910557767</v>
+        <v>1.632649718166411</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.926651155393964</v>
@@ -28895,7 +28847,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.533528190724485</v>
+        <v>1.542244548232532</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.85700682791977</v>
@@ -28984,7 +28936,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.419605093092338</v>
+        <v>1.429617147510118</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.876025432084275</v>
@@ -29073,7 +29025,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.393866899836042</v>
+        <v>1.40313680056439</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.87564270401682</v>
@@ -29162,7 +29114,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.37890318476766</v>
+        <v>1.386738625617582</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.870235827033836</v>
@@ -29251,7 +29203,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.391197956176809</v>
+        <v>1.400138878941869</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.90118442061466</v>
@@ -29340,7 +29292,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.392557343307568</v>
+        <v>1.401452606331515</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.876052655559999</v>
@@ -29429,7 +29381,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.391140479782302</v>
+        <v>1.397882822924128</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.8846498803571</v>
@@ -29518,7 +29470,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.386730137603037</v>
+        <v>1.39643599272838</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.87984183310667</v>
@@ -29607,7 +29559,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.367558811367986</v>
+        <v>1.372354664507941</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.873477684709597</v>
@@ -29696,7 +29648,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.331191323438119</v>
+        <v>1.334382394924043</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.915543095086475</v>
@@ -29785,7 +29737,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.322814310778577</v>
+        <v>1.326415852318777</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.89069325000305</v>
@@ -29874,7 +29826,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.318231396385879</v>
+        <v>1.323589805130874</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.896223877619621</v>
@@ -29963,7 +29915,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.309958970093554</v>
+        <v>1.315677097616328</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.899191155264664</v>
@@ -30052,7 +30004,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.313334530568408</v>
+        <v>1.319485068872109</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.872895574890381</v>
@@ -30141,7 +30093,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.323939347870145</v>
+        <v>1.331680713650846</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.89902614775445</v>
@@ -30230,7 +30182,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.36740943498622</v>
+        <v>1.377805998236489</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.824408465773378</v>
@@ -30319,7 +30271,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.429224601259444</v>
+        <v>1.445834335494823</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.455298580667837</v>
@@ -30408,7 +30360,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.440469629434131</v>
+        <v>1.456940602700203</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.355023710646689</v>
@@ -30497,7 +30449,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.458547256500737</v>
+        <v>1.477815104728083</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.460950165709887</v>
@@ -30586,7 +30538,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.449843499457315</v>
+        <v>1.469904266488132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.518402670796729</v>
@@ -30675,7 +30627,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.462367782255247</v>
+        <v>1.48487966061161</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.51928369984545</v>
@@ -30764,7 +30716,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.469833720646644</v>
+        <v>1.493415627847697</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.4874808728057</v>
@@ -30853,7 +30805,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.480586000136305</v>
+        <v>1.506804547219748</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.499966437918541</v>
@@ -30942,7 +30894,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.523781607704282</v>
+        <v>1.55461608292149</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.290742851077974</v>
@@ -31031,7 +30983,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.587460128797185</v>
+        <v>1.614894951363172</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.350144995158315</v>
@@ -31120,7 +31072,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.547395756307808</v>
+        <v>1.556529987466396</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.779413152949315</v>
@@ -31209,7 +31161,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.536989323010809</v>
+        <v>1.54828487880891</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.796152227877624</v>
@@ -31298,7 +31250,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.523779952969941</v>
+        <v>1.534952497769015</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.788831633705701</v>
@@ -31387,7 +31339,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.520609052875762</v>
+        <v>1.530660715238654</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.786847237959306</v>
@@ -31476,7 +31428,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.517454382073847</v>
+        <v>1.525529428382056</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.796453419263152</v>
@@ -31565,7 +31517,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.526343993732507</v>
+        <v>1.533488145220631</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.778478362703971</v>
@@ -31654,7 +31606,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.537690287491343</v>
+        <v>1.540486528340598</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.767406227421354</v>
@@ -31743,7 +31695,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.553157780286023</v>
+        <v>1.552655324805607</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.805035920851405</v>
@@ -31832,7 +31784,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.542680254111602</v>
+        <v>1.545846075762839</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.699075655911165</v>
@@ -31921,7 +31873,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.52441206757354</v>
+        <v>1.529711258909339</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.738771182689593</v>
@@ -32010,7 +31962,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.44797494346394</v>
+        <v>1.453145949545305</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.772603976609289</v>
@@ -32099,7 +32051,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.436445984423953</v>
+        <v>1.446607883461774</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.777789656829572</v>
@@ -32188,7 +32140,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.441335109385637</v>
+        <v>1.450223874275302</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.787045508903718</v>
@@ -32277,7 +32229,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.434904342809901</v>
+        <v>1.445855558630171</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.784462855255062</v>
@@ -32366,7 +32318,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.444764977149251</v>
+        <v>1.454149563365081</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.747717288412961</v>
